--- a/Bitacora_No_Reparados.xlsx
+++ b/Bitacora_No_Reparados.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,6 +677,30 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Refacciones obsoletas, Reparación no costeable, Material no disponible en el taller, Tarjeta dañada en su totalidad, Espera de refacciones, </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1306</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Refacciones obsoletas, Reparación no costeable, Material no disponible en el taller, Tarjeta dañada en su totalidad, Espera de refacciones, componente descontinuado, </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bitacora_No_Reparados.xlsx
+++ b/Bitacora_No_Reparados.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,6 +701,54 @@
         </is>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Refacciones obsoletas, Reparación no costeable, Material no disponible en el taller, Tarjeta dañada en su totalidad, Espera de refacciones, sdadasdasd, </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Refacciones obsoletas, Reparación no costeable, Material no disponible en el taller, Tarjeta dañada en su totalidad, asdasd, </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Refacciones obsoletas, Reparación no costeable, Material no disponible en el taller, Tarjeta dañada en su totalidad, Espera de refacciones, asdasdasd, </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1310</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Refacciones obsoletas, Reparación no costeable, Material no disponible en el taller, Tarjeta dañada en su totalidad, Espera de refacciones, dadasdasd, </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
